--- a/files/FA/FA_AIM.xlsx
+++ b/files/FA/FA_AIM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyi17\Desktop\B.C.S\FYP\FYP-StockScreener\files\FA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Highlights" sheetId="2" r:id="rId1"/>
@@ -722,9 +727,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1391,7 +1396,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
@@ -1400,7 +1405,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2">
@@ -1409,7 +1414,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2">
@@ -1418,26 +1423,26 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1465,7 +1470,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1474,7 +1479,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1483,7 +1488,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1492,22 +1497,25 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="34" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1588,6 +1596,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1635,7 +1646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1668,9 +1679,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1703,6 +1731,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3003,9 +3048,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3648,7 +3695,7 @@
         <v>-3.02374280896648E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -3696,7 +3743,7 @@
       </c>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>79</v>
       </c>
@@ -3746,7 +3793,7 @@
         <v>-4.4757984526879596E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>71</v>
       </c>
@@ -3796,7 +3843,7 @@
         <v>-353.13807531380797</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
@@ -3846,7 +3893,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3941,7 @@
       </c>
       <c r="P21" s="26"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>83</v>
       </c>
@@ -3944,7 +3991,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -3992,7 +4039,7 @@
       </c>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>85</v>
       </c>
@@ -4042,7 +4089,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -4090,7 +4137,7 @@
       </c>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -4140,7 +4187,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>71</v>
       </c>
@@ -4188,7 +4235,7 @@
       </c>
       <c r="P27" s="26"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>89</v>
       </c>
@@ -4238,7 +4285,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>71</v>
       </c>
@@ -4286,7 +4333,7 @@
       </c>
       <c r="P29" s="26"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>91</v>
       </c>
@@ -4336,7 +4383,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>71</v>
       </c>
@@ -4384,7 +4431,7 @@
       </c>
       <c r="P31" s="26"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>93</v>
       </c>
@@ -4433,8 +4480,9 @@
       <c r="P32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>71</v>
       </c>
@@ -4481,8 +4529,9 @@
         <v>36</v>
       </c>
       <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -4500,7 +4549,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
@@ -4550,7 +4599,7 @@
         <v>-1.5059148317132801E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>71</v>
       </c>
@@ -4598,7 +4647,7 @@
       </c>
       <c r="P36" s="26"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>63</v>
       </c>
@@ -4648,7 +4697,7 @@
         <v>-1.6906809991403801E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>71</v>
       </c>
@@ -4696,7 +4745,7 @@
       </c>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -4714,7 +4763,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -4764,7 +4813,7 @@
         <v>1.1741212275001399E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>71</v>
       </c>
@@ -4812,7 +4861,7 @@
       </c>
       <c r="P41" s="26"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>99</v>
       </c>
@@ -4862,7 +4911,7 @@
         <v>0.11885859381522</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>71</v>
       </c>
@@ -4910,7 +4959,7 @@
       </c>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>101</v>
       </c>
@@ -4958,7 +5007,7 @@
       </c>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>71</v>
       </c>
@@ -5006,7 +5055,7 @@
       </c>
       <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
